--- a/com.synet.tool.rsc/test/excel/shangwu/设备台账.xlsx
+++ b/com.synet.tool.rsc/test/excel/shangwu/设备台账.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Documents\需求\RS-5000\DBModel\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0E3A57-3E13-4640-88C4-1A0ED241232A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2C6E3-95B1-4B20-82C0-20FA7E286DAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>时间：</t>
   </si>
@@ -113,6 +113,29 @@
   </si>
   <si>
     <t>CK0002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A网IP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B网IP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.2.12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.2.13</t>
+  </si>
+  <si>
+    <t>10.11.2.12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11.2.13</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -271,29 +294,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,58 +602,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IM6"/>
+  <dimension ref="A1:IO6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.3984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.69921875" style="2" customWidth="1"/>
-    <col min="3" max="7" width="19.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="2"/>
+    <col min="3" max="9" width="19.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:249" ht="25.8" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:247" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:249" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:247" s="1" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:249" s="1" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:247" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:249" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -647,54 +674,64 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:249" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10">
         <v>43360</v>
       </c>
-      <c r="G5" s="14">
+      <c r="I5" s="10">
         <v>43237</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6">
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -930,40 +967,46 @@
       <c r="IK5"/>
       <c r="IL5"/>
       <c r="IM5"/>
+      <c r="IN5"/>
+      <c r="IO5"/>
     </row>
-    <row r="6" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:249" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10">
         <v>43360</v>
       </c>
-      <c r="G6" s="14">
+      <c r="I6" s="10">
         <v>43237</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="J6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -1199,12 +1242,14 @@
       <c r="IK6"/>
       <c r="IL6"/>
       <c r="IM6"/>
+      <c r="IN6"/>
+      <c r="IO6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
